--- a/WPF/Common/Коммандная разработка.xlsx
+++ b/WPF/Common/Коммандная разработка.xlsx
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1379,7 +1379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.5">
+    <row r="8" spans="1:9" ht="56.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="56.25">
+    <row r="15" spans="1:9" ht="37.5">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="56.25">
+    <row r="18" spans="1:7" ht="37.5">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>

--- a/WPF/Common/Коммандная разработка.xlsx
+++ b/WPF/Common/Коммандная разработка.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$E$1:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$E$1:$G$44</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
   <si>
     <r>
       <t>1.</t>
@@ -783,13 +783,194 @@
   </si>
   <si>
     <t>C5</t>
+  </si>
+  <si>
+    <t>Объекты</t>
+  </si>
+  <si>
+    <t>Группа фин. Инструментов</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Котировка 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Котировка 2</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Котировка</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>ticker - краткое наименование</t>
+  </si>
+  <si>
+    <t>Изм. К пред. периоду</t>
+  </si>
+  <si>
+    <t>Трейдеры</t>
+  </si>
+  <si>
+    <t>Заявки</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>                   Выставить заявку на продажу;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>                   Выставить заявку на покупку;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>                   Изменить объем заявки;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>                   Снять заявку;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>                   Поставить ограничения по заявке;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>                   Изменить цену;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>                   Определить момент входа в рынок.</t>
+    </r>
+  </si>
+  <si>
+    <t>Биржи</t>
+  </si>
+  <si>
+    <t>С1 (или uml, visio, word…)</t>
+  </si>
+  <si>
+    <t>Поля</t>
+  </si>
+  <si>
+    <t>Классы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Заявки</t>
+  </si>
+  <si>
+    <t>Брокеры?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,6 +1032,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -893,7 +1099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -932,6 +1138,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1226,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="E3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1237,7 +1447,9 @@
     <col min="2" max="2" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1278,6 +1490,9 @@
       <c r="F2" s="14" t="s">
         <v>78</v>
       </c>
+      <c r="G2" s="12" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="1" t="s">
@@ -1556,7 +1771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="37.5">
+    <row r="17" spans="1:8" ht="37.5">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1566,6 +1781,9 @@
       <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D17" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="E17" s="9">
         <v>16</v>
       </c>
@@ -1576,7 +1794,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="37.5">
+    <row r="18" spans="1:8" ht="37.5">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1596,7 +1814,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="37.5">
+    <row r="19" spans="1:8" ht="37.5">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1607,7 +1825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="37.5">
+    <row r="20" spans="1:8" ht="37.5">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1621,7 +1839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="37.5">
+    <row r="21" spans="1:8" ht="37.5">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1635,7 +1853,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="37.5">
+    <row r="22" spans="1:8" ht="37.5">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1645,19 +1863,148 @@
       <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75">
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.75">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75">
+      <c r="E23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.75">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="G28" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="G29" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="G30" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="G31" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="G32" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="G33" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7">
+      <c r="G37" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="6:7">
+      <c r="G38" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="G39" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="G40" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="G41" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="G42" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="G43" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7">
+      <c r="F44" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46" s="12" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:G22"/>
+  <autoFilter ref="E1:G44"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/WPF/Common/Коммандная разработка.xlsx
+++ b/WPF/Common/Коммандная разработка.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ten_VS\source\repos\WPF\WPF\Common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8519FA07-50E4-4D85-9EDC-8F794F072E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="12435" windowHeight="6225"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
   <si>
     <r>
       <t>1.</t>
@@ -969,8 +975,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1148,6 +1154,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1194,7 +1208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1226,9 +1240,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1260,6 +1292,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1435,25 +1485,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="E3:G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="75.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1524,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1494,7 +1544,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1564,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1581,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1541,6 +1591,9 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="E5" s="9">
         <v>4</v>
       </c>
@@ -1551,7 +1604,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1568,7 +1621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1594,7 +1647,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="56.25">
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1670,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1637,7 +1690,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="37.5">
+    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1657,7 +1710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5">
+    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
@@ -1677,7 +1730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5">
+    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1694,7 +1747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="37.5">
+    <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,7 +1767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="37.5">
+    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1734,7 +1787,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="37.5">
+    <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1754,7 +1807,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="37.5">
+    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1771,7 +1824,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="37.5">
+    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1794,7 +1847,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="37.5">
+    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1814,7 +1867,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="37.5">
+    <row r="19" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1825,7 +1878,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="37.5">
+    <row r="20" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1839,7 +1892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="37.5">
+    <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1853,7 +1906,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="37.5">
+    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1870,7 +1923,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
@@ -1884,7 +1937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75">
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
@@ -1892,17 +1945,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F27" s="12" t="s">
         <v>100</v>
       </c>
@@ -1913,98 +1966,98 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G28" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G29" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G30" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G31" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G32" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G33" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F34" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F36" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G37" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G38" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="6:7">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G39" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="6:7">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G40" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="6:7">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G41" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="6:7">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G42" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="6:7">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G43" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="6:7">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F44" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="6:7">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F46" s="12" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:G44"/>
+  <autoFilter ref="E1:G44" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/WPF/Common/Коммандная разработка.xlsx
+++ b/WPF/Common/Коммандная разработка.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ten_VS\source\repos\WPF\WPF\Common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8519FA07-50E4-4D85-9EDC-8F794F072E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
   <si>
     <r>
       <t>1.</t>
@@ -970,13 +964,31 @@
   </si>
   <si>
     <t>Брокеры?</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C6 связана с п. 1 - Реализовать классы и их связи в LibDefinitions</t>
+  </si>
+  <si>
+    <t>KGA</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,6 +1075,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1105,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -1148,6 +1168,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1208,7 +1234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1240,27 +1266,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1292,24 +1300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1485,25 +1475,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="42.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="75.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,6 +1502,9 @@
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9" t="s">
@@ -1524,7 +1517,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1534,6 +1527,9 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="E2" s="14">
         <v>1</v>
       </c>
@@ -1544,7 +1540,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1554,7 +1550,7 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="9">
@@ -1563,8 +1559,11 @@
       <c r="F3" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="G3" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1574,14 +1573,20 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="E4" s="9">
         <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="G4" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +1596,7 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E5" s="9">
@@ -1604,7 +1609,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1614,14 +1619,18 @@
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D6" s="18"/>
       <c r="E6" s="9">
         <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="G6" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1631,7 +1640,7 @@
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E7" s="9">
@@ -1647,7 +1656,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="56.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1657,6 +1666,7 @@
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="D8" s="18"/>
       <c r="E8" s="9">
         <v>7</v>
       </c>
@@ -1670,7 +1680,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,6 +1690,9 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="D9" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="E9" s="9">
         <v>8</v>
       </c>
@@ -1690,7 +1703,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="37.5">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1700,6 +1713,9 @@
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="D10" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="E10" s="9">
         <v>9</v>
       </c>
@@ -1710,7 +1726,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="37.5">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
@@ -1720,7 +1736,7 @@
       <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E11" s="9">
@@ -1729,8 +1745,11 @@
       <c r="F11" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="G11" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="37.5">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1740,14 +1759,20 @@
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="D12" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="E12" s="9">
         <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="G12" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="37.5">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1757,7 +1782,7 @@
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="9">
@@ -1766,8 +1791,11 @@
       <c r="F13" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="G13" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="37.5">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1777,7 +1805,7 @@
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E14" s="9">
@@ -1786,8 +1814,11 @@
       <c r="F14" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="G14" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="37.5">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1797,7 +1828,7 @@
       <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="9">
@@ -1807,7 +1838,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="37.5">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1817,14 +1848,20 @@
       <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D16" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="E16" s="9">
         <v>15</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="G16" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="37.5">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1834,7 +1871,7 @@
       <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E17" s="9">
@@ -1847,7 +1884,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="37.5">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1857,6 +1894,9 @@
       <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="D18" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="E18" s="10">
         <v>17</v>
       </c>
@@ -1867,18 +1907,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="37.5">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="37.5">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1892,7 +1933,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="37.5">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1906,7 +1947,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="37.5">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1916,6 +1957,9 @@
       <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="D22" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="F22" t="s">
         <v>120</v>
       </c>
@@ -1923,7 +1967,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18.75">
       <c r="A23" s="7"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
@@ -1937,7 +1981,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18.75">
       <c r="A24" s="7"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
@@ -1945,17 +1989,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="F25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="F26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="F27" s="12" t="s">
         <v>100</v>
       </c>
@@ -1966,98 +2010,98 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="G28" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="G29" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="G30" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="G31" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="G32" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:7">
       <c r="G33" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:7">
       <c r="F34" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:7">
       <c r="F35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:7">
       <c r="F36" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:7">
       <c r="G37" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:7">
       <c r="G38" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:7">
       <c r="G39" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:7">
       <c r="G40" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:7">
       <c r="G41" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:7">
       <c r="G42" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:7">
       <c r="G43" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:7">
       <c r="F44" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:7">
       <c r="F46" s="12" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:G44" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:G44"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/WPF/Common/Коммандная разработка.xlsx
+++ b/WPF/Common/Коммандная разработка.xlsx
@@ -1084,7 +1084,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1094,6 +1094,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -1173,6 +1191,14 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1478,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1489,7 +1515,7 @@
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1605,7 +1631,7 @@
       <c r="F5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="21" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1649,7 +1675,7 @@
       <c r="F7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="21" t="s">
         <v>89</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1699,7 +1725,7 @@
       <c r="F9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="21" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1722,7 +1748,7 @@
       <c r="F10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="22" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1745,7 +1771,7 @@
       <c r="F11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="21" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1791,7 +1817,7 @@
       <c r="F13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="21" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1811,10 +1837,10 @@
       <c r="E14" s="9">
         <v>13</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="17" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1880,7 +1906,7 @@
       <c r="F17" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="23" t="s">
         <v>86</v>
       </c>
     </row>

--- a/WPF/Common/Коммандная разработка.xlsx
+++ b/WPF/Common/Коммандная разработка.xlsx
@@ -1504,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/WPF/Common/Коммандная разработка.xlsx
+++ b/WPF/Common/Коммандная разработка.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="131">
   <si>
     <r>
       <t>1.</t>
@@ -982,6 +982,9 @@
   </si>
   <si>
     <t>C9</t>
+  </si>
+  <si>
+    <t>KGA?</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1087,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,6 +1115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -1200,6 +1209,12 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1504,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1631,7 +1646,7 @@
       <c r="F5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="25" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1655,6 +1670,9 @@
       <c r="G6" s="12" t="s">
         <v>127</v>
       </c>
+      <c r="H6" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="1" t="s">
@@ -1675,7 +1693,7 @@
       <c r="F7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="26" t="s">
         <v>89</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1748,8 +1766,8 @@
       <c r="F10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>86</v>
+      <c r="G10" s="24" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="37.5">
@@ -1840,7 +1858,10 @@
       <c r="F14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1883,7 +1904,7 @@
       <c r="F16" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="27" t="s">
         <v>126</v>
       </c>
     </row>

--- a/WPF/Common/Коммандная разработка.xlsx
+++ b/WPF/Common/Коммандная разработка.xlsx
@@ -1087,7 +1087,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,6 +1124,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1152,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -1215,6 +1221,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1519,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1789,7 +1796,7 @@
       <c r="F11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="28" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1835,7 +1842,7 @@
       <c r="F13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="28" t="s">
         <v>128</v>
       </c>
     </row>

--- a/WPF/Common/Коммандная разработка.xlsx
+++ b/WPF/Common/Коммандная разработка.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$E$1:$G$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$1:$D$44</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1158,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -1192,9 +1192,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1222,6 +1219,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1526,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1578,10 +1590,10 @@
       <c r="D2" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>78</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -1592,13 +1604,13 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="31" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="9">
@@ -1607,7 +1619,7 @@
       <c r="F3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1615,13 +1627,13 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="31" t="s">
         <v>128</v>
       </c>
       <c r="E4" s="9">
@@ -1630,7 +1642,7 @@
       <c r="F4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1638,13 +1650,13 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="31" t="s">
         <v>91</v>
       </c>
       <c r="E5" s="9">
@@ -1653,7 +1665,7 @@
       <c r="F5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1667,7 +1679,7 @@
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="9">
         <v>5</v>
       </c>
@@ -1685,13 +1697,13 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="31" t="s">
         <v>86</v>
       </c>
       <c r="E7" s="9">
@@ -1700,7 +1712,7 @@
       <c r="F7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>89</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -1717,17 +1729,17 @@
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="9">
         <v>7</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1750,7 +1762,7 @@
       <c r="F9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1758,13 +1770,13 @@
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="31" t="s">
         <v>129</v>
       </c>
       <c r="E10" s="9">
@@ -1773,7 +1785,7 @@
       <c r="F10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1781,13 +1793,13 @@
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="31" t="s">
         <v>91</v>
       </c>
       <c r="E11" s="9">
@@ -1796,7 +1808,7 @@
       <c r="F11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1827,13 +1839,13 @@
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="31" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="9">
@@ -1842,7 +1854,7 @@
       <c r="F13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1850,25 +1862,25 @@
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="31" t="s">
         <v>89</v>
       </c>
       <c r="E14" s="9">
         <v>13</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1876,13 +1888,13 @@
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="31" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="9">
@@ -1896,13 +1908,13 @@
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="31" t="s">
         <v>129</v>
       </c>
       <c r="E16" s="9">
@@ -1911,7 +1923,7 @@
       <c r="F16" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1919,13 +1931,13 @@
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="31" t="s">
         <v>93</v>
       </c>
       <c r="E17" s="9">
@@ -1934,7 +1946,7 @@
       <c r="F17" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1942,13 +1954,13 @@
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="31" t="s">
         <v>128</v>
       </c>
       <c r="E18" s="10">
@@ -1965,7 +1977,7 @@
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1977,13 +1989,13 @@
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="31" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1991,13 +2003,13 @@
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="31" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2005,13 +2017,13 @@
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="31" t="s">
         <v>128</v>
       </c>
       <c r="F22" t="s">
@@ -2110,42 +2122,42 @@
       </c>
     </row>
     <row r="37" spans="6:7">
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" spans="6:7">
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="6:7">
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" spans="6:7">
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="41" spans="6:7">
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="6:7">
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="6:7">
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="44" spans="6:7">
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="16" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2155,7 +2167,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:G44"/>
+  <autoFilter ref="B1:D44"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
